--- a/xls/TABLE_英雄攻击.xlsx
+++ b/xls/TABLE_英雄攻击.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="523">
   <si>
     <t>英雄ID</t>
   </si>
@@ -1586,11 +1586,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>af</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>8,8,0.2,8,8,0.2,8,8,0.2,8,8,0.2,8,8,0.2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ai</t>
+    <t>id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2585,14 +2589,14 @@
   <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>522</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -2651,7 +2655,7 @@
         <v>518</v>
       </c>
       <c r="J2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13170,7 +13174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C12:AZ263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="K261" sqref="K261"/>
     </sheetView>
   </sheetViews>
@@ -29778,7 +29782,7 @@
         <v>1</v>
       </c>
       <c r="L263" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q263">
         <v>8</v>
